--- a/test files/Tasks.xlsx
+++ b/test files/Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Python\Projects\ENGR467Project\RTOSSchedulingAlgorithms\test files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7548E40A-1012-49AF-AE77-42992E0745BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2BC8AB-EB92-46F8-9A21-85A13BB6A2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="2916" windowWidth="17280" windowHeight="8880" xr2:uid="{943672C3-0362-43EA-B627-6F4BED0FC92D}"/>
+    <workbookView xWindow="29760" yWindow="960" windowWidth="21600" windowHeight="11235" xr2:uid="{943672C3-0362-43EA-B627-6F4BED0FC92D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Task</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>T3</t>
-  </si>
-  <si>
-    <t>T4</t>
-  </si>
-  <si>
-    <t>T6</t>
   </si>
 </sst>
 </file>
@@ -409,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1852FC-D082-43A4-973F-903BB1C4989C}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="A5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,28 +455,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>55</v>
-      </c>
-      <c r="C5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
